--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,118 +672,145 @@
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>115500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>114500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>114100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>116500</v>
+      </c>
+      <c r="H8" s="3">
         <v>119600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="I8" s="3">
         <v>117900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>113800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <v>114300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="L8" s="3">
         <v>110400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="M8" s="3">
         <v>105300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="N8" s="3">
         <v>91900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
         <v>78500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="P8" s="3">
         <v>77900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
         <v>78700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="R8" s="3">
         <v>70100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="S8" s="3">
         <v>71800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>71800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="U8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +856,20 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +915,20 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +946,12 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +997,20 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1056,20 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,55 +1115,79 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H15" s="3">
         <v>-3100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="I15" s="3">
         <v>-3100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="J15" s="3">
         <v>-3200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="K15" s="3">
         <v>-3100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="L15" s="3">
         <v>-3000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>-3000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>-2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>-1800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="3">
         <v>-2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q15" s="3">
         <v>-2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="R15" s="3">
         <v>-1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="S15" s="3">
         <v>-1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="U15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1202,130 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H17" s="3">
         <v>30000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="I17" s="3">
         <v>30900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="J17" s="3">
         <v>27800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="K17" s="3">
         <v>27400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="L17" s="3">
         <v>22900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>21500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>17500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="S17" s="3">
         <v>11500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>10900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>95200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>90400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>88100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>86400</v>
+      </c>
+      <c r="H18" s="3">
         <v>89600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="I18" s="3">
         <v>87000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>86000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>86900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>87500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>83800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>74400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>64800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>65300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="Q18" s="3">
         <v>68000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
         <v>57800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="S18" s="3">
         <v>60300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>60900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1343,130 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="H20" s="3">
         <v>-42500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="I20" s="3">
         <v>-41900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>-45700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-40100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-39100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>-39000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-42400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-30200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-24800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q20" s="3">
         <v>-27800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
         <v>-25400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="S20" s="3">
         <v>-33300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="U20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>65900</v>
       </c>
       <c r="E21" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>41100</v>
+      </c>
+      <c r="G21" s="3">
+        <v>51100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>54400</v>
+      </c>
+      <c r="I21" s="3">
         <v>52500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>47700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>54100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>55700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>52000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>38900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>40700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>46600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>46500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="R21" s="3">
         <v>38300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="S21" s="3">
         <v>33000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>42700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1512,138 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>33800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43700</v>
+      </c>
+      <c r="H23" s="3">
         <v>47100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>45200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>40300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>46800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>48400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>44800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>34600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>40500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>40200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>32400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>27000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>36800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H24" s="3">
         <v>7700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="I24" s="3">
         <v>8900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="J24" s="3">
         <v>8200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="K24" s="3">
         <v>9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="N24" s="3">
         <v>6100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="O24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="P24" s="3">
         <v>11900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="R24" s="3">
         <v>9400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="S24" s="3">
         <v>7200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="U24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1689,138 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>27600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>35900</v>
+      </c>
+      <c r="H26" s="3">
         <v>39400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>36200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>32100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>37100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>39300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>36100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>23400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>28600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>27900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>23000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>19800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>25800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37700</v>
+        <v>34500</v>
       </c>
       <c r="E27" s="3">
         <v>34600</v>
       </c>
       <c r="F27" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J27" s="3">
         <v>31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>36700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>38300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>34800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>24700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>22400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>19000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>24200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1866,20 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,41 +1892,53 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-700</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-10100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1984,20 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +2043,138 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>54300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>42600</v>
+      </c>
+      <c r="H32" s="3">
         <v>42500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="I32" s="3">
         <v>41900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>45700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>40100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>39100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>39000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>42400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>30200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>24800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q32" s="3">
         <v>27800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="R32" s="3">
         <v>25400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="S32" s="3">
         <v>33300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>24100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="U32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37700</v>
+        <v>34500</v>
       </c>
       <c r="E33" s="3">
         <v>34600</v>
       </c>
       <c r="F33" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J33" s="3">
         <v>31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>36000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>38300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>34800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>24700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>22000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>19000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>24200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2220,143 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37700</v>
+        <v>34500</v>
       </c>
       <c r="E35" s="3">
         <v>34600</v>
       </c>
       <c r="F35" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J35" s="3">
         <v>31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>36000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>38300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>34800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>24700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>22000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>19000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>24200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2374,12 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2397,130 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>115700</v>
+      </c>
+      <c r="F41" s="3">
+        <v>108900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>97600</v>
+      </c>
+      <c r="H41" s="3">
         <v>124400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="I41" s="3">
         <v>110600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="J41" s="3">
         <v>104100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="K41" s="3">
         <v>665000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="L41" s="3">
         <v>688600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="M41" s="3">
         <v>440100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="N41" s="3">
         <v>479500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="O41" s="3">
         <v>500400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>647700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="Q41" s="3">
         <v>468500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="R41" s="3">
         <v>420200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="S41" s="3">
         <v>131000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>147900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="U41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>723200</v>
+        <v>1736800</v>
       </c>
       <c r="E42" s="3">
+        <v>2591900</v>
+      </c>
+      <c r="F42" s="3">
+        <v>834800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>377100</v>
+      </c>
+      <c r="H42" s="3">
+        <v>727300</v>
+      </c>
+      <c r="I42" s="3">
         <v>888700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="J42" s="3">
         <v>837700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="K42" s="3">
         <v>64900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="L42" s="3">
         <v>67300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="M42" s="3">
         <v>64100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="N42" s="3">
         <v>51000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="O42" s="3">
         <v>34100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="P42" s="3">
         <v>34600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="Q42" s="3">
         <v>34700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="R42" s="3">
         <v>41700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="S42" s="3">
         <v>41500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="T42" s="3">
         <v>31800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="U42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2566,20 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2625,20 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2684,20 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,149 +2743,197 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>92300</v>
       </c>
       <c r="E47" s="3">
+        <v>77600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>66100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>59400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>54600</v>
+      </c>
+      <c r="I47" s="3">
         <v>51700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="J47" s="3">
         <v>32300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="K47" s="3">
         <v>33000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="L47" s="3">
         <v>26400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="M47" s="3">
         <v>27400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="N47" s="3">
         <v>21400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="O47" s="3">
         <v>22800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="P47" s="3">
         <v>18800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="Q47" s="3">
         <v>19800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="R47" s="3">
         <v>13500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="S47" s="3">
         <v>14900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="T47" s="3">
         <v>15000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="U47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>231100</v>
+        <v>315400</v>
       </c>
       <c r="E48" s="3">
+        <v>304200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>285000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>279300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>280700</v>
+      </c>
+      <c r="I48" s="3">
         <v>271600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="J48" s="3">
         <v>269400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="K48" s="3">
         <v>211800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>210700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="M48" s="3">
         <v>208000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="N48" s="3">
         <v>207100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="O48" s="3">
         <v>194900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="P48" s="3">
         <v>197000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="Q48" s="3">
         <v>199900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="R48" s="3">
         <v>198700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="S48" s="3">
         <v>198600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>203000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>492500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>495400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>498200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>501200</v>
+      </c>
+      <c r="H49" s="3">
         <v>503800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="I49" s="3">
         <v>501300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="J49" s="3">
         <v>504200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="K49" s="3">
         <v>492400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="L49" s="3">
         <v>485300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>486300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>474300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>308800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>310700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>308300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="3">
         <v>302000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="S49" s="3">
         <v>302800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
         <v>304300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="U49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2979,20 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +3038,20 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +3097,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +3156,79 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14795400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15580300</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12623800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11947700</v>
+      </c>
+      <c r="H54" s="3">
         <v>12021300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="I54" s="3">
         <v>11942500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>11568300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="K54" s="3">
         <v>11163000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>11121200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="M54" s="3">
         <v>10831700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="N54" s="3">
         <v>10620400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="O54" s="3">
         <v>8522200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>8614800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>8427000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>8174800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>7973900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>7830100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +3246,12 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +3269,12 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +3320,20 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,43 +3379,55 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>62300</v>
       </c>
       <c r="E59" s="3">
+        <v>49700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>51100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>50200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I59" s="3">
         <v>43900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>44200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -2891,8 +3438,20 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,55 +3497,79 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1360200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>248600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>248500</v>
+      </c>
+      <c r="H61" s="3">
         <v>248300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="I61" s="3">
         <v>248200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="J61" s="3">
         <v>248000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="K61" s="3">
         <v>247900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="L61" s="3">
         <v>247700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="M61" s="3">
         <v>247600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="N61" s="3">
         <v>257700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="O61" s="3">
         <v>247200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="P61" s="3">
         <v>247100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3615,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3674,20 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3733,20 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3792,79 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13063700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>13872700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>10970600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10306900</v>
+      </c>
+      <c r="H66" s="3">
         <v>10395900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>10348700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>10014400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>9637500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>9635300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>9368900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>9181900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>7390900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>7485200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>7316400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>7085000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>6898800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>6762900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3882,12 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3933,20 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3992,20 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +4051,20 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +4110,79 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>520900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>499500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>478000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>467200</v>
+      </c>
+      <c r="H72" s="3">
         <v>445200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>420600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>399000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>379200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>354800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>328100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>304900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>282700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>279200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>260800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>243300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>229500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>218600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +4228,20 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +4287,20 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +4346,79 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1731700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1707600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1653200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1640800</v>
+      </c>
+      <c r="H76" s="3">
         <v>1625400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>1593800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>1553800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>1525500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>1486000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>1462800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>1438500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>1131200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>1129600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>1110700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>1089800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>1075100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>1067200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4464,143 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37700</v>
+        <v>34500</v>
       </c>
       <c r="E81" s="3">
         <v>34600</v>
       </c>
       <c r="F81" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>35100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>34600</v>
+      </c>
+      <c r="J81" s="3">
         <v>31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>36000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>38300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>34800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>24700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>22000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>19000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>24200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4618,71 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>7300</v>
       </c>
       <c r="E83" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
       </c>
       <c r="I83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="N83" s="3">
         <v>6800</v>
-      </c>
-      <c r="K83" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>6200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>6300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5900</v>
       </c>
       <c r="O83" s="3">
         <v>6000</v>
       </c>
       <c r="P83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R83" s="3">
         <v>5900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4728,20 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4787,20 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4846,20 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4905,20 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4964,79 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>32400</v>
       </c>
       <c r="E89" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>51800</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-104100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="J89" s="3">
         <v>42600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="K89" s="3">
         <v>188200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="L89" s="3">
         <v>74400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-40800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>85500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>107700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-161900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>157900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>115100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="T89" s="3">
         <v>65300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="U89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +5054,71 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-3900</v>
       </c>
       <c r="E91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-7000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1600</v>
       </c>
       <c r="M91" s="3">
         <v>-5300</v>
       </c>
       <c r="N91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +5164,20 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +5223,79 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>1600</v>
       </c>
       <c r="E94" s="3">
+        <v>-1009700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-194400</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-370300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-109400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-158900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="J94" s="3">
         <v>-114700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="K94" s="3">
         <v>-173200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="L94" s="3">
         <v>-113700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="M94" s="3">
         <v>-140300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="N94" s="3">
         <v>-209400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3">
         <v>-77100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="P94" s="3">
         <v>-95400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="Q94" s="3">
         <v>-19500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="R94" s="3">
         <v>-17400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="S94" s="3">
         <v>-273800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="T94" s="3">
         <v>900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="U94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +5313,71 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-13100</v>
       </c>
       <c r="E96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-11500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="J96" s="3">
         <v>-11600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="K96" s="3">
         <v>-11700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="M96" s="3">
         <v>-11600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="N96" s="3">
         <v>-10100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="O96" s="3">
         <v>-8800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="P96" s="3">
         <v>-8800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="Q96" s="3">
         <v>-8800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="R96" s="3">
         <v>-8100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="S96" s="3">
         <v>-8100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="T96" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="U96" s="3">
         <v>-8100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +5423,20 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5482,20 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5541,79 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-875500</v>
       </c>
       <c r="E100" s="3">
+        <v>2878700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>641100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I100" s="3">
         <v>329300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="J100" s="3">
         <v>285700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="K100" s="3">
         <v>-37800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>291000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>142200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="N100" s="3">
         <v>99400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="O100" s="3">
         <v>-107800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>182900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>229400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>148500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>140400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="T100" s="3">
         <v>-133400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="U100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5659,75 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-841600</v>
       </c>
       <c r="E102" s="3">
+        <v>1765100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>443500</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-378800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="I102" s="3">
         <v>66300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="J102" s="3">
         <v>213600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="K102" s="3">
         <v>-22800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="L102" s="3">
         <v>251700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="M102" s="3">
         <v>-38900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="N102" s="3">
         <v>-24500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-163800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>195100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="Q102" s="3">
         <v>48000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="R102" s="3">
         <v>289000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="S102" s="3">
         <v>-18200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="T102" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,158 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E8" s="3">
         <v>115500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>114500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>116500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>119600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>117900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>114300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>110400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>105300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>91900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>70100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>71800</v>
       </c>
       <c r="T8" s="3">
         <v>71800</v>
       </c>
       <c r="U8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="V8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,55 +1146,58 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="E15" s="3">
         <v>-2900</v>
       </c>
       <c r="F15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="G15" s="3">
         <v>-3000</v>
       </c>
       <c r="H15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I15" s="3">
         <v>-3100</v>
       </c>
       <c r="J15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-3000</v>
       </c>
       <c r="M15" s="3">
         <v>-3000</v>
       </c>
       <c r="N15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O15" s="3">
         <v>-2600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q15" s="3">
         <v>-2000</v>
       </c>
       <c r="R15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="S15" s="3">
         <v>-1900</v>
@@ -1184,10 +1206,13 @@
         <v>-1900</v>
       </c>
       <c r="U15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="V15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
         <v>20300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>24100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100400</v>
+      </c>
+      <c r="E18" s="3">
         <v>95200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>90400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>88100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>86400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>89600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>87000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>86000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>83800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>74400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>65300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>68000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-36700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-54300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-45700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-25400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-33300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>71600</v>
+      </c>
+      <c r="E21" s="3">
         <v>65900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>55700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>38900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>33000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E23" s="3">
         <v>58600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>47100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>45200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>40300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>48400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>32000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>36800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E24" s="3">
         <v>7800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53900</v>
+      </c>
+      <c r="E26" s="3">
         <v>50700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>37200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>35900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>39400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>32100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E27" s="3">
         <v>34500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>24200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1904,24 +1964,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-10100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E32" s="3">
         <v>36700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>54300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>45700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>25400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>33300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E33" s="3">
         <v>34500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>35100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>24200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E35" s="3">
         <v>34500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>35100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>24200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2486,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E41" s="3">
         <v>114600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>108900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>97600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>124400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>104100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>665000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>688600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>440100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>479500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>647700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>468500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>420200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>131000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>147900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1852900</v>
+      </c>
+      <c r="E42" s="3">
         <v>1736800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2591900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>834800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>377100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>727300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>888700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>837700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>64900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>67300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>64100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>51000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>34100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>41700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>41500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>31800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,185 +2856,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>92300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>77600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>59400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>54600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>51700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>27400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>13500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>14900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E48" s="3">
         <v>315400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>304200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>285000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>279300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>280700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>271600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>269400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>211800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>210700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>208000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>207100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>194900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>197000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>199900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>198700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>198600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>203000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>497900</v>
+      </c>
+      <c r="E49" s="3">
         <v>492500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>495400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>498200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>501200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>503800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>504200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>492400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>485300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>486300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>474300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>308800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>310700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>302000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>302800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>304300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14626400</v>
+      </c>
+      <c r="E54" s="3">
         <v>14795400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15580300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12623800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11947700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12021300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11942500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11568300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11163000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11121200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10831700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10620400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8522200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8614800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8427000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8174800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7973900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7830100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,35 +3524,38 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>62300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>49700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>51100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>50200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>52300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>43900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3429,8 +3565,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3450,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,53 +3648,56 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E61" s="3">
         <v>248900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1360200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>248600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>248200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>247900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>247700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>247600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>257700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>247200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>247100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12859600</v>
+      </c>
+      <c r="E66" s="3">
         <v>13063700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13872700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10970600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10306900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10395900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10348700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10014400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9637500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9635300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9368900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9181900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7390900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7485200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7316400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7085000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6898800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6762900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>557900</v>
+      </c>
+      <c r="E72" s="3">
         <v>520900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>499500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>478000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>467200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>445200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>420600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>399000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>379200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>354800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>328100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>304900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>282700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>279200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>260800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>243300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>229500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>218600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1766800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1731700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1707600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1653200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1640800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1625400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1593800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1553800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1525500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1486000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1462800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1438500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1131200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1129600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1110700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1089800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1075100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1067200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E81" s="3">
         <v>34500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>35100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>24200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,10 +4829,10 @@
         <v>7300</v>
       </c>
       <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7300</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
@@ -4643,7 +4841,7 @@
         <v>7300</v>
       </c>
       <c r="I83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J83" s="3">
         <v>7400</v>
@@ -4652,37 +4850,40 @@
         <v>7400</v>
       </c>
       <c r="L83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>202700</v>
+      </c>
+      <c r="E89" s="3">
         <v>32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-104000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-104100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>42600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>188200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>74400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-40800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>85500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>107700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-161900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>157900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>115100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>65300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-194400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-370300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-158900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-114700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-173200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-113700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-140300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-209400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-77100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-273800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,46 +5549,47 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="E96" s="3">
         <v>-13100</v>
       </c>
       <c r="F96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-13000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-11500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-8800</v>
       </c>
       <c r="P96" s="3">
         <v>-8800</v>
@@ -5365,7 +5598,7 @@
         <v>-8800</v>
       </c>
       <c r="R96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="S96" s="3">
         <v>-8100</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-231600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-875500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2878700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>641100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-81800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>329300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>285700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-37800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>291000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>142200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>99400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-107800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>182900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>229400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>148500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>140400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-133400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-841600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1765100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>443500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-378800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-145200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>66300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>213600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-22800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>251700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-38900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-163800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>195100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>48000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>289000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-67200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E8" s="3">
         <v>116000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>115500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>114500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>116500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>119600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>117900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>105300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>91900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>70100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>71800</v>
       </c>
       <c r="U8" s="3">
         <v>71800</v>
       </c>
       <c r="V8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="W8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,58 +1169,61 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-2900</v>
       </c>
       <c r="F15" s="3">
         <v>-2900</v>
       </c>
       <c r="G15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H15" s="3">
         <v>-3000</v>
       </c>
       <c r="I15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="J15" s="3">
         <v>-3100</v>
       </c>
       <c r="K15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L15" s="3">
         <v>-3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-3000</v>
       </c>
       <c r="N15" s="3">
         <v>-3000</v>
       </c>
       <c r="O15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P15" s="3">
         <v>-2600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-2000</v>
       </c>
       <c r="R15" s="3">
         <v>-2000</v>
       </c>
       <c r="S15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="T15" s="3">
         <v>-1900</v>
@@ -1209,10 +1232,13 @@
         <v>-1900</v>
       </c>
       <c r="V15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="W15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>24100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E18" s="3">
         <v>100400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>95200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>90400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>88100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>86400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>89600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>87000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>83800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>74400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>65300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>68000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-36100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-54300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-25400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-33300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>96400</v>
+      </c>
+      <c r="E21" s="3">
         <v>71600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>65900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>55700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>52000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>33000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>42700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E23" s="3">
         <v>64300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>43700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>47100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>32000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>36800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E24" s="3">
         <v>10400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E26" s="3">
         <v>53900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>35900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>39400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>39300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>36100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>27900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E27" s="3">
         <v>50100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>26400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>35100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>37700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>34800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>24700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1967,24 +2028,24 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E32" s="3">
         <v>36100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>54300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>30200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>25400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>33300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E33" s="3">
         <v>50100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>26400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>35100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>37700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>34800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>24700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E35" s="3">
         <v>50100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>26400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>35100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>37700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>34800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>24700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,132 +2573,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E41" s="3">
         <v>41500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>114600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>108900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>97600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>665000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>688600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>440100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>479500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>647700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>468500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>420200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>131000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>147900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1983400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1852900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1736800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2591900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>834800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>377100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>727300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>888700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>837700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>64900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>67300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>51000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>34100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>41700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>41500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>31800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,194 +2961,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>92700</v>
       </c>
       <c r="E47" s="3">
+        <v>92400</v>
+      </c>
+      <c r="F47" s="3">
         <v>92300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>77600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>59400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>54600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>51700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>27400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>13500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>14900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>260200</v>
+        <v>320600</v>
       </c>
       <c r="E48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="F48" s="3">
         <v>315400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>304200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>285000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>279300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>280700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>271600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>269400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>211800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>210700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>207100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>194900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>197000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>199900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>198700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>198600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>203000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>497100</v>
+      </c>
+      <c r="E49" s="3">
         <v>497900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>492500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>495400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>498200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>503800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>501300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>504200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>492400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>485300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>486300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>474300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>308800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>310700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>308300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>302000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>302800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>304300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15079400</v>
+      </c>
+      <c r="E54" s="3">
         <v>14626400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14795400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15580300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12623800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11947700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12021300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11942500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11568300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11163000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11121200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10831700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10620400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8522200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8614800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8427000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8174800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7973900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7830100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,38 +3661,41 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>62700</v>
       </c>
       <c r="E59" s="3">
+        <v>64200</v>
+      </c>
+      <c r="F59" s="3">
         <v>62300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>49700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>50200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>52300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>43900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3568,8 +3705,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,56 +3791,59 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>432400</v>
+      </c>
+      <c r="E61" s="3">
         <v>431900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>248900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1360200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>248300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>247900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>247700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>247600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>257700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>247200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>247100</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13279200</v>
+      </c>
+      <c r="E66" s="3">
         <v>12859600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13063700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13872700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10970600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10306900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10395900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10348700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10014400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9637500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9635300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9368900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9181900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7390900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7485200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7316400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7085000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6898800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6762900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>613800</v>
+      </c>
+      <c r="E72" s="3">
         <v>557900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>520900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>499500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>478000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>467200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>445200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>420600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>399000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>379200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>354800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>328100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>304900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>282700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>279200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>260800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>243300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>229500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>218600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1800200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1766800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1731700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1707600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1653200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1640800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1625400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1593800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1553800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1525500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1486000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1462800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1438500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1131200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1129600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1110700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1089800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1075100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1067200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E81" s="3">
         <v>50100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>26400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>35100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>37700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>34800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>24700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,22 +5018,23 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
         <v>7300</v>
       </c>
       <c r="F83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G83" s="3">
         <v>7200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7300</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
@@ -4844,7 +5043,7 @@
         <v>7300</v>
       </c>
       <c r="J83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="K83" s="3">
         <v>7400</v>
@@ -4853,37 +5052,40 @@
         <v>7400</v>
       </c>
       <c r="M83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E89" s="3">
         <v>202700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>32400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-104000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-3200</v>
+        <v>-110100</v>
       </c>
       <c r="H89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I89" s="3">
         <v>51800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-104100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>188200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>74400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-40800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>107700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-161900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>157900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>115100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>65300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="E94" s="3">
         <v>83500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-194400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-370300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-158900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-114700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-173200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-113700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-140300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-209400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-77100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-95400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-273800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,49 +5783,50 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-13100</v>
       </c>
       <c r="F96" s="3">
         <v>-13100</v>
       </c>
       <c r="G96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-13200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-11500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-8800</v>
       </c>
       <c r="Q96" s="3">
         <v>-8800</v>
@@ -5601,7 +5835,7 @@
         <v>-8800</v>
       </c>
       <c r="S96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="T96" s="3">
         <v>-8100</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>349600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-231600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-875500</v>
       </c>
-      <c r="F100" s="3">
-        <v>2878700</v>
-      </c>
       <c r="G100" s="3">
-        <v>641100</v>
+        <v>2878200</v>
       </c>
       <c r="H100" s="3">
+        <v>641700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-81800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>329300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>285700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-37800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>291000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>142200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>99400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-107800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>182900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>229400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>148500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>140400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-133400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E102" s="3">
         <v>54600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-841600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1765100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>443500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-378800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-145200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>66300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>213600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-22800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>251700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-38900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-163800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>195100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>48000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>289000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-67200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E8" s="3">
         <v>112300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>116000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>115500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>114500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>116500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>119600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>117900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>105300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>91900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>77900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>70100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>71800</v>
       </c>
       <c r="V8" s="3">
         <v>71800</v>
       </c>
       <c r="W8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="X8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,52 +1204,52 @@
         <v>-2700</v>
       </c>
       <c r="E15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-2900</v>
       </c>
       <c r="G15" s="3">
         <v>-2900</v>
       </c>
       <c r="H15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I15" s="3">
         <v>-3000</v>
       </c>
       <c r="J15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K15" s="3">
         <v>-3100</v>
       </c>
       <c r="L15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M15" s="3">
         <v>-3200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-3000</v>
       </c>
       <c r="O15" s="3">
         <v>-3000</v>
       </c>
       <c r="P15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-2000</v>
       </c>
       <c r="S15" s="3">
         <v>-2000</v>
       </c>
       <c r="T15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="U15" s="3">
         <v>-1900</v>
@@ -1235,10 +1258,13 @@
         <v>-1900</v>
       </c>
       <c r="W15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="X15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>24100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>21500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>17500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>10700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E18" s="3">
         <v>104000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>95200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>90400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>88100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>86400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>89600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>83800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>74400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>65300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>68000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-39200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-14800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-54300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-40100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-30200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-25400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-33300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-24100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E21" s="3">
         <v>96400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>65900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>54400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>55700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>52000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>46600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>33000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>42700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E23" s="3">
         <v>89200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>43700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>47100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>48400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>32000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>34600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>36800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>7200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E26" s="3">
         <v>72600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>53900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>39400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>39300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>27900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E27" s="3">
         <v>69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>34800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>27200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2031,24 +2092,24 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-10100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E32" s="3">
         <v>14800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>54300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>40100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>30200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>25400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>33300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>24100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E33" s="3">
         <v>69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>37700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>34800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>27200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E35" s="3">
         <v>69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>37700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>34800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>27200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,138 +2660,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E41" s="3">
         <v>141500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>114600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>97600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>124400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>665000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>688600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>440100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>479500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>647700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>468500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>420200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>131000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>147900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3019400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1983400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1852900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1736800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2591900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>834800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>377100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>727300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>888700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>837700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>64900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>67300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>34100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>41700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>41500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>31800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E47" s="3">
         <v>92700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>77600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>59400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>54600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>51700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>33000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>22800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>19800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>13500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>320600</v>
+        <v>322100</v>
       </c>
       <c r="E48" s="3">
         <v>320600</v>
       </c>
       <c r="F48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="G48" s="3">
         <v>315400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>304200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>285000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>279300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>280700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>271600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>269400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>211800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>210700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>208000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>207100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>194900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>197000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>199900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>198700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>198600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>203000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>494600</v>
+      </c>
+      <c r="E49" s="3">
         <v>497100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>497900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>492500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>495400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>498200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>503800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>501300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>504200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>492400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>485300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>486300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>474300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>308800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>310700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>308300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>302000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>302800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>304300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15803800</v>
+      </c>
+      <c r="E54" s="3">
         <v>15079400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14626400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14795400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15580300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12623800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11947700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12021300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11942500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11568300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11163000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11121200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10831700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10620400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8522200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8614800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8427000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8174800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7973900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7830100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,41 +3798,44 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E59" s="3">
         <v>62700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>49700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>44200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3708,8 +3845,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,59 +3934,62 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E61" s="3">
         <v>432400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>431900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>248900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1360200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>248500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>247900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>247700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>247600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>257700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>247200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13950000</v>
+      </c>
+      <c r="E66" s="3">
         <v>13279200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12859600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13063700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13872700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10970600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10306900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10395900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10348700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10014400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9637500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9635300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9368900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9181900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7390900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7485200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7316400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7085000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6898800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6762900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>655100</v>
+      </c>
+      <c r="E72" s="3">
         <v>613800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>557900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>520900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>499500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>478000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>467200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>445200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>420600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>399000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>379200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>354800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>328100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>304900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>282700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>279200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>260800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>243300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>229500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>218600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1853800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1800200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1766800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1731700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1707600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1653200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1640800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1625400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1593800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1553800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1525500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1486000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1462800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1438500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1131200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1129600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1110700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1089800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1075100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1067200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E81" s="3">
         <v>69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>37700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>34800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>27200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,25 +5217,26 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7300</v>
       </c>
       <c r="F83" s="3">
         <v>7300</v>
       </c>
       <c r="G83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H83" s="3">
         <v>7200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>7300</v>
       </c>
       <c r="I83" s="3">
         <v>7300</v>
@@ -5046,7 +5245,7 @@
         <v>7300</v>
       </c>
       <c r="K83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="L83" s="3">
         <v>7400</v>
@@ -5055,37 +5254,40 @@
         <v>7400</v>
       </c>
       <c r="N83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93700</v>
+      </c>
+      <c r="E89" s="3">
         <v>72800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>202700</v>
       </c>
-      <c r="F89" s="3">
-        <v>32400</v>
-      </c>
       <c r="G89" s="3">
-        <v>-110100</v>
+        <v>14100</v>
       </c>
       <c r="H89" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="I89" s="3">
         <v>2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>51800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-104100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>42600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>188200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>74400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-40800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>107700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-161900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>157900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>115100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>65300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>275800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-178600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>83500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-194400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-370300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-109400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-158900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-114700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-173200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-113700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-209400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-95400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-273800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,52 +6017,53 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-13100</v>
       </c>
       <c r="G96" s="3">
         <v>-13100</v>
       </c>
       <c r="H96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-11500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-8800</v>
       </c>
       <c r="R96" s="3">
         <v>-8800</v>
@@ -5838,7 +6072,7 @@
         <v>-8800</v>
       </c>
       <c r="T96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="U96" s="3">
         <v>-8100</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>642800</v>
+      </c>
+      <c r="E100" s="3">
         <v>349600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-231600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-875500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2878200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>641700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-81800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>329300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>285700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-37800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>291000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>142200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>99400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-107800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>182900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>229400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>148500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>140400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-133400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="E102" s="3">
         <v>243700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>54600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-841600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1765100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>443500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-378800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-145200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>213600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-22800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>251700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-38900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-163800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>195100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>48000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>289000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-67200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E8" s="3">
         <v>111800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>112300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>116000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>114500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>116500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>119600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>117900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>113800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>110400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>105300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>91900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>77900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>78700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>70100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>71800</v>
       </c>
       <c r="W8" s="3">
         <v>71800</v>
       </c>
       <c r="X8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="Y8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,64 +1215,67 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E15" s="3">
         <v>-2700</v>
       </c>
       <c r="F15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-2900</v>
       </c>
       <c r="H15" s="3">
         <v>-2900</v>
       </c>
       <c r="I15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="J15" s="3">
         <v>-3000</v>
       </c>
       <c r="K15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="L15" s="3">
         <v>-3100</v>
       </c>
       <c r="M15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N15" s="3">
         <v>-3200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-3000</v>
       </c>
       <c r="P15" s="3">
         <v>-3000</v>
       </c>
       <c r="Q15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R15" s="3">
         <v>-2600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-2000</v>
       </c>
       <c r="T15" s="3">
         <v>-2000</v>
       </c>
       <c r="U15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="V15" s="3">
         <v>-1900</v>
@@ -1261,10 +1284,13 @@
         <v>-1900</v>
       </c>
       <c r="X15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>24100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>21500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>17500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>10700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>12300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>10900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E18" s="3">
         <v>111200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>104000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>95200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>90400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>86400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>86000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>87500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>83800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>74400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>65300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>68000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>60300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-39200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-14800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-36700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-45700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-54300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-40100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-42400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-30200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-25400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-33300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-24100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>74800</v>
+      </c>
+      <c r="E21" s="3">
         <v>79000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>71600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>65900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>55700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>52000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>38900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>46600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>33000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>42700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E23" s="3">
         <v>72000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>43700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>47100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>45200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>34600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>27000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>36800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>16600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>7200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>52700</v>
+      </c>
+      <c r="E26" s="3">
         <v>58000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>53900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>39400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>27900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>25800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E27" s="3">
         <v>55800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>69000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>36700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>27200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>26200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>24200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2095,24 +2156,24 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-10100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E32" s="3">
         <v>39200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>14800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>36700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>45700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>54300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>40100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>42400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>30200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>25400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>33300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>24100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E33" s="3">
         <v>55800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>69000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>36000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>27200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>26200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E35" s="3">
         <v>55800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>69000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>36000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>27200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>26200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E41" s="3">
         <v>117800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>141500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>114600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>97600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>124400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>665000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>688600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>440100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>479500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>647700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>468500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>420200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>131000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>147900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3201700</v>
+      </c>
+      <c r="E42" s="3">
         <v>3019400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1983400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1852900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1736800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2591900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>834800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>377100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>727300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>888700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>837700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>64900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>67300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>64100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>51000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>34100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>41700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>41500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>31800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3171,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102200</v>
+      </c>
+      <c r="E47" s="3">
         <v>96800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>92700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>77600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>66100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>59400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>54600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>51700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>27400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>21400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>22800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>13500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>325800</v>
+      </c>
+      <c r="E48" s="3">
         <v>322100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>320600</v>
       </c>
       <c r="F48" s="3">
         <v>320600</v>
       </c>
       <c r="G48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="H48" s="3">
         <v>315400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>304200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>285000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>279300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>280700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>271600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>269400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>211800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>210700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>208000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>207100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>194900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>197000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>199900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>198700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>198600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>203000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E49" s="3">
         <v>494600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>497100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>497900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>492500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>495400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>498200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>501200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>503800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>501300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>504200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>492400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>485300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>486300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>474300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>308800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>310700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>308300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>302000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>302800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>304300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15811400</v>
+      </c>
+      <c r="E54" s="3">
         <v>15803800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15079400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14626400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14795400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15580300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12623800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11947700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12021300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11942500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11568300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11163000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11121200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10831700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10620400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8522200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8614800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8427000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8174800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7973900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7830100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,44 +3935,47 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E59" s="3">
         <v>60300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>62700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>62300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>49700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>50200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>44200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3848,8 +3985,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,62 +4077,65 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>249500</v>
+      </c>
+      <c r="E61" s="3">
         <v>249400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>432400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>431900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>248900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1360200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>248600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>248000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>247900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>247700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>247600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>257700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247100</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13928300</v>
+      </c>
+      <c r="E66" s="3">
         <v>13950000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13279200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12859600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13063700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13872700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10970600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10306900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10395900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10348700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10014400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9637500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9635300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9368900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9181900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7390900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7485200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7316400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7085000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6898800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6762900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E72" s="3">
         <v>655100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>613800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>557900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>520900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>499500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>478000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>467200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>445200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>420600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>399000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>379200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>354800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>328100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>304900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>282700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>279200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>260800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>243300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>229500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>218600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1883100</v>
+      </c>
+      <c r="E76" s="3">
         <v>1853800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1800200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1766800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1731700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1707600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1653200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1640800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1625400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1593800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1553800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1525500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1486000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1462800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1438500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1131200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1129600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1110700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1089800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1075100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1067200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E81" s="3">
         <v>55800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>69000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>36000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>27200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>26200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,28 +5416,29 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E83" s="3">
         <v>7100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7300</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
       </c>
       <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7300</v>
       </c>
       <c r="J83" s="3">
         <v>7300</v>
@@ -5248,7 +5447,7 @@
         <v>7300</v>
       </c>
       <c r="L83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="M83" s="3">
         <v>7400</v>
@@ -5257,37 +5456,40 @@
         <v>7400</v>
       </c>
       <c r="O83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>240900</v>
+      </c>
+      <c r="E89" s="3">
         <v>93700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>72800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>202700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>14100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-91900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>51800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-104100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>42600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>188200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>74400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-40800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>107700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-161900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>157900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>115100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>65300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E94" s="3">
         <v>275800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-178600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>83500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-194400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-370300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-109400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-158900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-114700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-173200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-113700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-209400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-77100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-95400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-273800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,55 +6251,56 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-13100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-13200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-13100</v>
       </c>
       <c r="H96" s="3">
         <v>-13100</v>
       </c>
       <c r="I96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-13000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-11500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-8800</v>
       </c>
       <c r="S96" s="3">
         <v>-8800</v>
@@ -6075,7 +6309,7 @@
         <v>-8800</v>
       </c>
       <c r="U96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="V96" s="3">
         <v>-8100</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="E100" s="3">
         <v>642800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>349600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-231600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-875500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2878200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>641700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-81800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>329300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>285700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-37800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>291000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>142200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>99400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-107800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>182900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>229400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>148500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>140400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-133400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E102" s="3">
         <v>1012200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>243700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>54600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-841600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1765100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>443500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-378800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-145200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>213600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-22800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>251700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-163800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>195100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>48000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>289000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-67200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,185 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>109500</v>
+      </c>
+      <c r="E8" s="3">
         <v>109800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>111800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>112300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>116000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>114500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>114100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>119600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>117900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>114300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>110400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>105300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>91900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>78700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>70100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>71800</v>
       </c>
       <c r="X8" s="3">
         <v>71800</v>
       </c>
       <c r="Y8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="Z8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,67 +1237,70 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-2700</v>
       </c>
       <c r="F15" s="3">
         <v>-2700</v>
       </c>
       <c r="G15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2900</v>
       </c>
       <c r="I15" s="3">
         <v>-2900</v>
       </c>
       <c r="J15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K15" s="3">
         <v>-3000</v>
       </c>
       <c r="L15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="M15" s="3">
         <v>-3100</v>
       </c>
       <c r="N15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="O15" s="3">
         <v>-3200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q15" s="3">
         <v>-3000</v>
       </c>
       <c r="R15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S15" s="3">
         <v>-2600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-2000</v>
       </c>
       <c r="U15" s="3">
         <v>-2000</v>
       </c>
       <c r="V15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="W15" s="3">
         <v>-1900</v>
@@ -1287,10 +1309,13 @@
         <v>-1900</v>
       </c>
       <c r="Y15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E17" s="3">
         <v>7800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>21500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>17500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E18" s="3">
         <v>102000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>104000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>95200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>90400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>89600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>83800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>65300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>68000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>60300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-50800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-39200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-36100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-36700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-45700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-54300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-45700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-40100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-39000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-42400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-30200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-27800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-25400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-33300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-24100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E21" s="3">
         <v>74800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>79000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>96400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>71600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>65900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>52500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>47700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>55700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>38900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>33000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>42700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E23" s="3">
         <v>67600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>72000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>89200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>64300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>43700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>47100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>45200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>46800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>34600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>36800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>14800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>16600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>7200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E26" s="3">
         <v>52700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>58000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>53900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>37200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>39400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>32100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>28600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>27900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>19800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E27" s="3">
         <v>50400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>37700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>27200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>26200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>19000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>24200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2159,24 +2219,24 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-10100</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E32" s="3">
         <v>34400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>39200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>36100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>36700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>45700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>54300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>45700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>40100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>39000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>42400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>30200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>27800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>25400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>33300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>24100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E33" s="3">
         <v>50400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>37700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>27200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>26200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>19000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E35" s="3">
         <v>50400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>37700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>27200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>26200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>19000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2833,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E41" s="3">
         <v>75400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>117800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>141500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>114600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>108900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>97600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>124400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>104100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>665000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>688600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>440100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>479500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>647700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>468500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>420200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>131000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>147900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3292400</v>
+      </c>
+      <c r="E42" s="3">
         <v>3201700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3019400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1983400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1852900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1736800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2591900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>834800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>377100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>727300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>888700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>837700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>64900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>67300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>64100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>51000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>34100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>34600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>34700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>41700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>41500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>31800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,221 +3275,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E47" s="3">
         <v>102200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>96800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>92400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>92300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>77600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>66100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>59400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>54600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>51700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>32300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>27400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>21400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>22800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>13500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>14900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E48" s="3">
         <v>325800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>322100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>320600</v>
       </c>
       <c r="G48" s="3">
         <v>320600</v>
       </c>
       <c r="H48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="I48" s="3">
         <v>315400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>304200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>285000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>279300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>280700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>271600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>269400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>211800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>210700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>208000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>207100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>194900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>197000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>199900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>198700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>198600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>203000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>507600</v>
+      </c>
+      <c r="E49" s="3">
         <v>508000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>494600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>497100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>497900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>492500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>495400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>498200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>501200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>503800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>501300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>504200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>492400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>485300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>486300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>474300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>308800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>310700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>308300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>302000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>302800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>304300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16361400</v>
+      </c>
+      <c r="E54" s="3">
         <v>15811400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15803800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15079400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14626400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14795400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15580300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12623800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11947700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12021300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11942500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11568300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11163000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11121200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10831700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10620400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8522200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8614800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8427000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8174800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7973900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7830100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,47 +4071,50 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56600</v>
+      </c>
+      <c r="E59" s="3">
         <v>58900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>60300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>62700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>62300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>49700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>52300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>43900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3988,8 +4124,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4009,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,65 +4219,68 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>249700</v>
+      </c>
+      <c r="E61" s="3">
         <v>249500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>249400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>432400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>431900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>248900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1360200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>248600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>248200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>248000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>247900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>247700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>247600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>257700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247100</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14462100</v>
+      </c>
+      <c r="E66" s="3">
         <v>13928300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>13950000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13279200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12859600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13063700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13872700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10970600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10306900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10395900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10348700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10014400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9637500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9635300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9368900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9181900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7390900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7485200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7316400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7085000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6898800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6762900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>716600</v>
+      </c>
+      <c r="E72" s="3">
         <v>691000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>655100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>613800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>557900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>520900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>499500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>478000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>467200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>445200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>420600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>399000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>379200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>354800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>328100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>304900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>282700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>279200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>260800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>243300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>229500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>218600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1899300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1883100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1853800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1800200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1766800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1731700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1707600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1653200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1640800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1625400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1593800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1553800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1525500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1486000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1462800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1438500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1131200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1129600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1110700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1089800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1075100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1067200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E81" s="3">
         <v>50400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>37700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>27200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>26200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>19000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,31 +5614,32 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>7300</v>
       </c>
       <c r="H83" s="3">
         <v>7300</v>
       </c>
       <c r="I83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J83" s="3">
         <v>7200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7300</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
@@ -5450,7 +5648,7 @@
         <v>7300</v>
       </c>
       <c r="M83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="N83" s="3">
         <v>7400</v>
@@ -5459,37 +5657,40 @@
         <v>7400</v>
       </c>
       <c r="P83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E89" s="3">
         <v>240900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>93700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>72800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>202700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-91900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>51800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-104100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>188200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>74400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-40800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>85500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>21100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>107700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-161900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>157900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>115100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>65300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-616100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>275800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-178600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>83500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-194400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-370300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-158900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-114700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-173200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-113700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-209400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-77100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-95400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-273800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6261,49 +6494,49 @@
         <v>-14500</v>
       </c>
       <c r="E96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-13100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-13200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-13100</v>
       </c>
       <c r="I96" s="3">
         <v>-13100</v>
       </c>
       <c r="J96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-11500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-8800</v>
       </c>
       <c r="T96" s="3">
         <v>-8800</v>
@@ -6312,7 +6545,7 @@
         <v>-8800</v>
       </c>
       <c r="V96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="W96" s="3">
         <v>-8100</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>537300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-68900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>642800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>349600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-231600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-875500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2878200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>641700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-81800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>329300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>285700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-37800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>291000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>142200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>99400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-107800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>182900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>229400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>148500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>140400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-133400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E102" s="3">
         <v>143700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1012200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>243700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>54600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-841600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1765100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>443500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-378800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-145200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>213600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-22800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>251700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-38900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-163800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>195100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>48000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>289000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,199 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>108400</v>
+      </c>
+      <c r="F8" s="3">
         <v>109500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>109800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>111800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>112300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>116000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>115500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>114500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>114100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>116500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>119600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>117900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>113800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>114300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>110400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>105300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>91900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>78500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>77900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>78700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>70100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>71800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>71800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,82 +1280,94 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E15" s="3">
         <v>-2800</v>
       </c>
       <c r="F15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="H15" s="3">
         <v>-2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>-2800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>-2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-3000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-3000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-3200</v>
       </c>
       <c r="P15" s="3">
         <v>-3100</v>
       </c>
       <c r="Q15" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-3000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>-2600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>-1800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>-2000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-1900</v>
       </c>
       <c r="Y15" s="3">
         <v>-1900</v>
       </c>
       <c r="Z15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AB15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>7800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>15600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>24100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>26000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>30100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>30000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>30900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>27800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>27400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>22900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>21500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>17500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>13700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>12600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>10700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>12300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>11500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>10900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100700</v>
+      </c>
+      <c r="F18" s="3">
         <v>101900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>102000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>111200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>104000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>100400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>95200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>90400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>88100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>86400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>89600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>87000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>86000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>86900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>87500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>83800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>74400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>64800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>65300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>68000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>57800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>60300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>60900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-50800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-34400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-39200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-14800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-36100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-36700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-45700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-54300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-42600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-42500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-41900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-45700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-40100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-39100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-39000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-42400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-30200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-24800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-27800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-25400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-33300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-24100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F21" s="3">
         <v>58400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>74800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>79000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>96400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>71600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>65900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>51900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>41100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>51100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>54400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>52500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>47700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>54100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>55700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>52000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>38900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>40700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>46600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>46500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>38300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>33000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>42700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>57500</v>
+      </c>
+      <c r="F23" s="3">
         <v>51100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>67600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>72000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>89200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>64300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>58600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>43700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>47100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>45200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>40300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>46800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>48400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>44800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>32000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>34600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>40500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>40200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>32400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>27000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>36800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F24" s="3">
         <v>9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>16600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>6200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>8900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>8200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>9200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>11200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>11900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>12200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>9400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>7200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>11000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F26" s="3">
         <v>41700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>52700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>58000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>72600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>53900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>50700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>37200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>27600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>35900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>39400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>36200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>32100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>37100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>39300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>36100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>25900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>23400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>28600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>27900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>23000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>19800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>25800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F27" s="3">
         <v>40200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>50400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>55800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>69000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>50100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>34500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>26400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>37700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>36700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>38300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>34800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>24700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>22400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>27200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>26200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>22000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>19000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>24200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,31 +2297,37 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -2222,27 +2344,27 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-10100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2377,14 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F32" s="3">
         <v>50800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>34400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>39200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>14800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>36100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>36700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>45700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>54300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>42600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>42500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>41900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>45700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>40100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>39100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>39000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>42400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>30200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>24800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>27800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>25400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>33300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>24100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F33" s="3">
         <v>40200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>50400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>55800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>69000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>50100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>34500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>26400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>37700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>36000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>38300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>34800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>24700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>12300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>27200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>26200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>22000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>19000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>24200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F35" s="3">
         <v>40200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>50400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>55800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>69000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>50100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>34500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>26400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>37700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>36000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>38300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>34800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>24700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>12300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>27200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>26200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>22000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>19000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>24200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,156 +3006,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>75000</v>
+      </c>
+      <c r="F41" s="3">
         <v>17400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>75400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>117800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>141500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>41500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>114600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>115700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>108900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>97600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>124400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>110600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>104100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>665000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>688600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>440100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>479500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>500400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>647700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>468500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>420200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>131000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>147900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2387500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2902400</v>
+      </c>
+      <c r="F42" s="3">
         <v>3292400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>3201700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3019400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1983400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1852900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1736800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2591900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>834800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>377100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>727300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>888700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>837700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>64900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>67300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>64100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>51000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>34100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>34600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>34700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>41700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>41500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>31800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3402,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,230 +3482,254 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>102400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>102200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>96800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>92700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>92400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>92300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>77600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>66100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>59400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>54600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>51700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>32300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>33000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>26400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>27400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>21400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>22800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>18800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>19800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>13500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>14900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>15000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>341900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>331900</v>
+      </c>
+      <c r="F48" s="3">
         <v>323500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>325800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>322100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>320600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>320600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>315400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>304200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>285000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>279300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>280700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>271600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>269400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>211800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>210700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>208000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>207100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>194900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>197000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>199900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>198700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>198600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>203000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>504700</v>
+      </c>
+      <c r="F49" s="3">
         <v>507600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>508000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>494600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>497100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>497900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>492500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>495400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>498200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>501200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>503800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>501300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>504200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>492400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>485300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>486300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>474300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>308800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>310700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>308300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>302000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>302800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>304300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3962,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16864000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16666600</v>
+      </c>
+      <c r="F54" s="3">
         <v>16361400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15811400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15803800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15079400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>14626400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14795400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15580300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12623800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11947700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12021300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11942500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11568300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11163000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11121200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10831700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10620400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8522200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8614800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8427000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>8174800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7973900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>7830100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4186,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,8 +4262,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,64 +4342,70 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F59" s="3">
         <v>56600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>58900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>60300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>62700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>64200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>62300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>49700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>50200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>52300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>43900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>44200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,8 +4422,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,71 +4502,77 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>497100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>496800</v>
+      </c>
+      <c r="F61" s="3">
         <v>249700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>249500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>249400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>432400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>431900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>248900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1360200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>248600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>248500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>248300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>248200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>248000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>247900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>247700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>247600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>257700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>247200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>247100</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4582,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15010300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14804100</v>
+      </c>
+      <c r="F66" s="3">
         <v>14462100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13928300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>13950000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>13279200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>12859600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13063700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13872700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10970600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10306900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10395900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10348700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10014400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9637500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>9635300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9368900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9181900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7390900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7485200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7316400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7085000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6898800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6762900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>777400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>747600</v>
+      </c>
+      <c r="F72" s="3">
         <v>716600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>691000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>655100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>613800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>557900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>520900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>499500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>478000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>467200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>445200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>420600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>399000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>379200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>354800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>328100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>304900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>282700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>279200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>260800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>243300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>229500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>218600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1862500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1899300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1883100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1853800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1800200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1766800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1731700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1707600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1653200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1640800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1625400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1593800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1553800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1525500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1486000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1462800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1438500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1131200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1129600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1110700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1089800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1075100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1067200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45600</v>
+      </c>
+      <c r="F81" s="3">
         <v>40200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>50400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>55800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>69000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>50100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>34500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>26400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>37700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>36000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>38300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>34800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>24700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>12300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>27200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>26200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>22000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>19000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>24200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +6011,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F83" s="3">
-        <v>7100</v>
       </c>
       <c r="G83" s="3">
         <v>7200</v>
       </c>
       <c r="H83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J83" s="3">
         <v>7300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7200</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
       </c>
       <c r="L83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="M83" s="3">
         <v>7300</v>
       </c>
       <c r="N83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="O83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="P83" s="3">
         <v>7400</v>
       </c>
       <c r="Q83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>6800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>6200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>6300</v>
-      </c>
-      <c r="W83" s="3">
-        <v>5900</v>
-      </c>
-      <c r="X83" s="3">
-        <v>6000</v>
       </c>
       <c r="Y83" s="3">
         <v>5900</v>
       </c>
       <c r="Z83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AB83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>160500</v>
+      </c>
+      <c r="F89" s="3">
         <v>111500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>240900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>93700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>72800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>202700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>14100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-91900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>51800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-104100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>42600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>188200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>74400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-40800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>85500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>21100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>107700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-161900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>157900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>115100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>65300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-25100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-9200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-5300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-4400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-788400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-819200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-616100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-28400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>275800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-178600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>83500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-194400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-370300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-109400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-158900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-114700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-173200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-113700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-140300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-209400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-77100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-95400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-19500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-17400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-273800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,64 +6962,64 @@
         <v>-14500</v>
       </c>
       <c r="E96" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-14500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-13100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-13200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-13000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-13100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-13100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-13200</v>
       </c>
       <c r="M96" s="3">
         <v>-13000</v>
       </c>
       <c r="N96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-11500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-11600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-11700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-11600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-8800</v>
       </c>
       <c r="V96" s="3">
         <v>-8800</v>
       </c>
       <c r="W96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="X96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="Y96" s="3">
         <v>-8100</v>
@@ -6559,8 +7027,14 @@
       <c r="Z96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>329000</v>
+      </c>
+      <c r="F100" s="3">
         <v>537300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-68900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>642800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>349600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-231600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-875500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2878200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>641700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-81800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>329300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>285700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-37800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>291000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>142200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>99400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-107800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>182900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>229400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>148500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>140400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-133400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-517400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-329600</v>
+      </c>
+      <c r="F102" s="3">
         <v>32700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>143700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1012200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>243700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>54600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-841600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1765100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>443500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-378800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-145200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>66300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>213600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>251700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-38900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-24500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-163800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>195100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>48000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>289000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-18200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-67200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>137500</v>
+      </c>
+      <c r="E8" s="3">
         <v>120100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>108400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>109500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>109800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>111800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>112300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>116000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>114500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>116500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>119600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>117900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>114300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>105300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>91900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>78500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>77900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>78700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>70100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>71800</v>
       </c>
       <c r="AA8" s="3">
         <v>71800</v>
       </c>
       <c r="AB8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="AC8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,76 +1306,79 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2700</v>
       </c>
       <c r="I15" s="3">
         <v>-2700</v>
       </c>
       <c r="J15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-2900</v>
       </c>
       <c r="L15" s="3">
         <v>-2900</v>
       </c>
       <c r="M15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="N15" s="3">
         <v>-3000</v>
       </c>
       <c r="O15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="P15" s="3">
         <v>-3100</v>
       </c>
       <c r="Q15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R15" s="3">
         <v>-3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-3000</v>
       </c>
       <c r="T15" s="3">
         <v>-3000</v>
       </c>
       <c r="U15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V15" s="3">
         <v>-2600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="W15" s="3">
-        <v>-2000</v>
       </c>
       <c r="X15" s="3">
         <v>-2000</v>
       </c>
       <c r="Y15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="Z15" s="3">
         <v>-1900</v>
@@ -1364,10 +1387,13 @@
         <v>-1900</v>
       </c>
       <c r="AB15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AC15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>30100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>22900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>21500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>17500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>12600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>10700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>12300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>10900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>120100</v>
+      </c>
+      <c r="E18" s="3">
         <v>109200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>101900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>102000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>111200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>104000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>95200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>86400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>89600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>87000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>87500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>83800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>64800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>65300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>68000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>57800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>60300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-56800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-51000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-43200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-50800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-34400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-39200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-36100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-45700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-54300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-45700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-40100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-39100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-39000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-42400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-30200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-24800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-25400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-24100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>70400</v>
+      </c>
+      <c r="E21" s="3">
         <v>65300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>64800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>58400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>79000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>96400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>71600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>65900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>51100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>52500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>47700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>55700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>52000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>40700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>38300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>33000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>42700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E23" s="3">
         <v>58200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>57500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>67600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>72000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>58600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>43700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>45200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>46800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>48400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>44800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>34600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>36800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>16600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>8600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>12200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>9400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>7200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>11000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50700</v>
+      </c>
+      <c r="E26" s="3">
         <v>47100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>41700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>52700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>58000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>72600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>53900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>37200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>35900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>39400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>37100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>28600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>27900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>25800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E27" s="3">
         <v>46500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>45600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>40200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>55800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>69000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>34600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>31400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>34800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>27200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>26200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>24200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2390,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -2350,24 +2411,24 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-10100</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E32" s="3">
         <v>51000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>43200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>50800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>34400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>39200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>36100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>45700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>54300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>45700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>40100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>39100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>39000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>42400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>30200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>24800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>27800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>25400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>33300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>24100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E33" s="3">
         <v>46500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>45600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>40200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>55800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>69000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>34600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>31400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>34800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>12300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>27200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>24200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E35" s="3">
         <v>46500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>45600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>40200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>55800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>69000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>34600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>31400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>34800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>12300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>27200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>24200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E41" s="3">
         <v>72600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>75400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>117800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>141500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>114600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>108900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>124400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>104100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>665000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>688600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>440100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>479500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>647700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>468500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>420200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>131000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>147900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1351400</v>
+      </c>
+      <c r="E42" s="3">
         <v>2387500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2902400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3292400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3201700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3019400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1983400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1852900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1736800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2591900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>834800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>377100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>727300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>888700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>837700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>64900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>67300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>64100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>51000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>34100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>34600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>34700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>41700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>41500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>31800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,248 +3590,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>139100</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
         <v>102400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>96800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>92700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>66100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>59400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>51700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>32300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>33000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>26400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>27400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>21400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>22800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>18800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>19800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>13500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>14900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>15000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>346600</v>
+      </c>
+      <c r="E48" s="3">
         <v>341900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>331900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>323500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>325800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>322100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>320600</v>
       </c>
       <c r="J48" s="3">
         <v>320600</v>
       </c>
       <c r="K48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="L48" s="3">
         <v>315400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>304200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>285000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>279300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>280700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>271600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>269400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>211800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>210700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>208000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>207100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>194900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>197000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>199900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>198700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>198600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>203000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>503300</v>
+      </c>
+      <c r="E49" s="3">
         <v>502000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>504700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>507600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>508000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>494600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>497100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>497900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>492500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>495400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>498200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>501200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>503800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>501300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>504200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>492400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>485300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>486300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>474300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>308800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>310700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>308300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>302000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>302800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>304300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15951800</v>
+      </c>
+      <c r="E54" s="3">
         <v>16864000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16666600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16361400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15811400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15803800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15079400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14626400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14795400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15580300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12623800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11947700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12021300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11942500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11568300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11163000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11121200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10831700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10620400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8522200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8614800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8427000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8174800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7973900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7830100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,56 +4482,59 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E59" s="3">
         <v>56000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>57900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>56600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>60300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>62700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>62300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>49700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>44200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4407,8 +4544,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,74 +4648,77 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E61" s="3">
         <v>497100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>496800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>249700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>249500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>249400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>432400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>431900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>248900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1360200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>248600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>248500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>248300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>248200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>248000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>247900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>257700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>247200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>247100</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14125100</v>
+      </c>
+      <c r="E66" s="3">
         <v>15010300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14804100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14462100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13928300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13950000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13279200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12859600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13063700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13872700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10970600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10306900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10395900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10348700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10014400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9637500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9635300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9368900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9181900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7390900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7485200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7316400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7085000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6898800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6762900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>810800</v>
+      </c>
+      <c r="E72" s="3">
         <v>777400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>747600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>716600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>691000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>655100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>613800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>557900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>520900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>499500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>478000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>467200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>445200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>420600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>399000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>379200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>354800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>328100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>304900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>282700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>279200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>260800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>243300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>229500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>218600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1826700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1853700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1862500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1899300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1883100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1853800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1800200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1766800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1731700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1707600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1653200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1640800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1625400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1593800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1553800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1525500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1486000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1462800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1438500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1131200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1129600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1110700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1089800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1075100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1067200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E81" s="3">
         <v>46500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>45600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>40200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>55800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>69000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>34600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>31400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>34800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>12300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>27200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>24200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,31 +6221,31 @@
         <v>7100</v>
       </c>
       <c r="E83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F83" s="3">
         <v>7300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7300</v>
       </c>
       <c r="K83" s="3">
         <v>7300</v>
       </c>
       <c r="L83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="M83" s="3">
         <v>7200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7300</v>
       </c>
       <c r="N83" s="3">
         <v>7300</v>
@@ -6055,7 +6254,7 @@
         <v>7300</v>
       </c>
       <c r="P83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="Q83" s="3">
         <v>7400</v>
@@ -6064,37 +6263,40 @@
         <v>7400</v>
       </c>
       <c r="S83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E89" s="3">
         <v>90400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>160500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>111500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>240900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>93700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>72800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>202700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-91900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>51800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-104100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>42600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>188200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>74400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-40800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>85500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>107700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-161900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>157900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>115100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>65300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-215800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-788400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-819200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-616100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>275800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-178600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>83500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-194400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-370300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-109400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-158900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-114700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-173200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-113700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-209400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-77100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-95400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-273800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,67 +7186,68 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-14800</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-14500</v>
       </c>
       <c r="G96" s="3">
         <v>-14500</v>
       </c>
       <c r="H96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-13100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-13200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-13100</v>
       </c>
       <c r="L96" s="3">
         <v>-13100</v>
       </c>
       <c r="M96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-13000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-13200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-8800</v>
       </c>
       <c r="W96" s="3">
         <v>-8800</v>
@@ -7022,7 +7256,7 @@
         <v>-8800</v>
       </c>
       <c r="Y96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="Z96" s="3">
         <v>-8100</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-881100</v>
+      </c>
+      <c r="E100" s="3">
         <v>180600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>329000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>537300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-68900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>642800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>349600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-231600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-875500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2878200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>641700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-81800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>329300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>285700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-37800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>291000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>142200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>99400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-107800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>182900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>229400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>148500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>140400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-133400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1010400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-517400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-329600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>143700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1012200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>243700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>54600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-841600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1765100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>443500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-378800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-145200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>66300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>213600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-22800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>251700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-38900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-163800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>195100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>48000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>289000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-18200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-67200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,212 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E8" s="3">
         <v>137500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>120100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>108400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>109500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>109800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>111800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>112300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>114500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>114100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>116500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>119600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>117900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>114300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>110400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>105300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>91900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>78500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>77900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>78700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>70100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>71800</v>
       </c>
       <c r="AB8" s="3">
         <v>71800</v>
       </c>
       <c r="AC8" s="3">
+        <v>71800</v>
+      </c>
+      <c r="AD8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,79 +1328,82 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>-2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2700</v>
       </c>
       <c r="J15" s="3">
         <v>-2700</v>
       </c>
       <c r="K15" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-2900</v>
       </c>
       <c r="M15" s="3">
         <v>-2900</v>
       </c>
       <c r="N15" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="O15" s="3">
         <v>-3000</v>
       </c>
       <c r="P15" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="Q15" s="3">
         <v>-3100</v>
       </c>
       <c r="R15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-3000</v>
       </c>
       <c r="U15" s="3">
         <v>-3000</v>
       </c>
       <c r="V15" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W15" s="3">
         <v>-2600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-1800</v>
-      </c>
-      <c r="X15" s="3">
-        <v>-2000</v>
       </c>
       <c r="Y15" s="3">
         <v>-2000</v>
       </c>
       <c r="Z15" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="AA15" s="3">
         <v>-1900</v>
@@ -1390,10 +1412,13 @@
         <v>-1900</v>
       </c>
       <c r="AC15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AD15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E17" s="3">
         <v>17400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>30100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>30000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>30900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>22900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>21500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>17500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>12600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>12300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>10900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E18" s="3">
         <v>120100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>109200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>101900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>102000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>111200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>104000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>95200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>89600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>87000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>87500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>83800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>64800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>65300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>68000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>57800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>60900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-56800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-51000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-43200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-50800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-39200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-45700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-54300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-45700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-40100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-39100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-39000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-42400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-30200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-24800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-25400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-24100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E21" s="3">
         <v>70400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>65300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>64800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>58400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>79000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>96400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>71600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>65900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>51100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>52500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>47700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>55700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>52000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>40700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>38300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>33000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>42700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E23" s="3">
         <v>63300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>57500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>67600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>72000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>58600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>33800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>43700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>45200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>48400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>44800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>34600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>40200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>36800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E24" s="3">
         <v>12600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>16600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>8600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>12200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>7200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>11000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E26" s="3">
         <v>50700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>41700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>72600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>53900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>37200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>39400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>32100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>37100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>28600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>27900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>25800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E27" s="3">
         <v>50200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>46500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>45600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>40200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>69000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>34600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>37700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>34600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>31400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>34800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>27200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>26200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>22000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>24200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2393,8 +2453,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2414,24 +2474,24 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-10100</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E32" s="3">
         <v>56800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>51000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>50800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>39200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>45700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>54300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>45700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>40100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>39100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>39000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>42400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>30200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>24800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>27800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>25400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>33300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>24100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E33" s="3">
         <v>50200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>46500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>45600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>40200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>69000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>34500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>34600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>37700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>34600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>31400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>34800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>12300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>27200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>22000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>24200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E35" s="3">
         <v>50200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>46500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>45600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>40200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>69000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>34500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>34600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>37700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>34600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>31400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>34800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>12300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>27200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>22000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>24200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3180,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E41" s="3">
         <v>97300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>72600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>17400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>117800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>141500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>114600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>108900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>124400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>104100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>665000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>688600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>440100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>479500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>500400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>647700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>468500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>420200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>131000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>147900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1107000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1351400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2387500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2902400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3292400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3201700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3019400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1983400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1852900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1736800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2591900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>834800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>377100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>727300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>888700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>837700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>64900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>67300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>64100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>51000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>34100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>34600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>34700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>41700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>41500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>31800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,257 +3694,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E47" s="3">
         <v>139100</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>102400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>96800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>92700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>77600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>59400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>51700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>33000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>26400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>27400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>21400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>22800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>18800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>13500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>14900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>15000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>354300</v>
+      </c>
+      <c r="E48" s="3">
         <v>346600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>341900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>331900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>323500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>325800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>322100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>320600</v>
       </c>
       <c r="K48" s="3">
         <v>320600</v>
       </c>
       <c r="L48" s="3">
+        <v>320600</v>
+      </c>
+      <c r="M48" s="3">
         <v>315400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>304200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>285000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>279300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>280700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>271600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>269400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>211800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>210700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>208000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>207100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>194900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>197000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>199900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>198700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>198600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>203000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501600</v>
+      </c>
+      <c r="E49" s="3">
         <v>503300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>502000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>504700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>507600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>508000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>494600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>497100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>497900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>492500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>495400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>498200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>501200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>503800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>501300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>504200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>492400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>485300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>486300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>474300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>308800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>310700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>308300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>302000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>302800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>304300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15845300</v>
+      </c>
+      <c r="E54" s="3">
         <v>15951800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16864000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16666600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16361400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15811400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15803800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15079400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14626400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14795400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15580300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12623800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11947700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12021300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11942500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11568300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11163000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11121200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10831700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10620400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8522200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8614800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8427000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8174800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7973900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>7830100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4532,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,59 +4618,62 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E59" s="3">
         <v>55100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>56000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>57900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>56600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>60300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>62700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>64200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>62300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>49700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>50200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>52300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>44200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4547,8 +4683,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4568,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,77 +4790,80 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E61" s="3">
         <v>247300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>497100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>496800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>249700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>249500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>249400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>432400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>431900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>248900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1360200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>248600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>248500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>248300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>248200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>248000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>247900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>247700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>247600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>257700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>247200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>247100</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13971300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14125100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15010300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14804100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14462100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13928300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13950000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13279200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12859600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13063700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13872700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10970600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10306900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10395900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10348700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10014400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9637500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9635300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9368900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9181900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7390900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7485200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7316400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7085000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6898800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6762900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>840800</v>
+      </c>
+      <c r="E72" s="3">
         <v>810800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>777400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>747600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>716600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>691000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>655100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>613800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>557900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>520900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>499500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>478000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>467200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>445200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>420600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>399000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>379200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>354800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>328100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>304900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>282700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>279200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>260800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>243300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>229500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>218600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1874000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1826700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1853700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1862500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1899300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1883100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1853800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1800200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1766800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1731700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1707600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1653200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1640800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1625400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1593800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1553800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1525500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1486000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1462800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1438500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1131200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1129600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1110700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1089800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1075100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1067200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E81" s="3">
         <v>50200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>46500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>45600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>40200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>69000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>34500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>34600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>37700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>34600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>31400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>34800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>12300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>27200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>22000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>24200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,43 +6409,44 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="E83" s="3">
         <v>7100</v>
       </c>
       <c r="F83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>7300</v>
       </c>
       <c r="L83" s="3">
         <v>7300</v>
       </c>
       <c r="M83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N83" s="3">
         <v>7200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7300</v>
       </c>
       <c r="O83" s="3">
         <v>7300</v>
@@ -6257,7 +6455,7 @@
         <v>7300</v>
       </c>
       <c r="Q83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="R83" s="3">
         <v>7400</v>
@@ -6266,37 +6464,40 @@
         <v>7400</v>
       </c>
       <c r="T83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E89" s="3">
         <v>86500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>90400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>160500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>111500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>240900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>93700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>202700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-91900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>51800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-104100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>42600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>188200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>74400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-40800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>85500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>107700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-161900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>157900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>115100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>65300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-223800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-215800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-788400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-819200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-616100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>275800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-178600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>83500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-194400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-370300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-158900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-114700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-113700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-140300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-209400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-77100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-17400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-273800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,61 +7429,61 @@
         <v>-16700</v>
       </c>
       <c r="E96" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-14500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-14500</v>
       </c>
       <c r="H96" s="3">
         <v>-14500</v>
       </c>
       <c r="I96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-13100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-13200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-13100</v>
       </c>
       <c r="M96" s="3">
         <v>-13100</v>
       </c>
       <c r="N96" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-13000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-13200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-11700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-8800</v>
       </c>
       <c r="X96" s="3">
         <v>-8800</v>
@@ -7259,7 +7492,7 @@
         <v>-8800</v>
       </c>
       <c r="Z96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="AA96" s="3">
         <v>-8100</v>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-881100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>180600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>329000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>537300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-68900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>642800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>349600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-231600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-875500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2878200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>641700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-81800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>329300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>285700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-37800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>291000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>142200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>99400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-107800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>182900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>229400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>148500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>140400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-133400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-286400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1010400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-517400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-329600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>32700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>143700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1012200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>243700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>54600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-841600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1765100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>443500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-378800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-145200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>66300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>213600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-22800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>251700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-38900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-163800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>195100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>48000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>289000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-67200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>25800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TOWN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>TOWN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,226 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>163400</v>
+      </c>
+      <c r="F8" s="3">
         <v>151900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>137500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>120100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>108400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>109500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>109800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>111800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>112300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>116000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>115500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>114500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>114100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>116500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>119600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>117900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>113800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>114300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>110400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>105300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>91900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>78500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>77900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>78700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>70100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>71800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>71800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AF8" s="3">
         <v>56200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +969,14 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1279,14 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,94 +1371,106 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F15" s="3">
         <v>-2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>-2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-2700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2900</v>
       </c>
       <c r="I15" s="3">
         <v>-2800</v>
       </c>
       <c r="J15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="L15" s="3">
         <v>-2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-3000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>-3100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-3200</v>
       </c>
       <c r="T15" s="3">
         <v>-3100</v>
       </c>
       <c r="U15" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="V15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W15" s="3">
         <v>-3000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>-3000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>-2600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>-2000</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>-1900</v>
       </c>
       <c r="AC15" s="3">
         <v>-1900</v>
       </c>
       <c r="AD15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="AF15" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1498,194 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F17" s="3">
         <v>29200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>20300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>24100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>26000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>30100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>30000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>30900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>27800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>27400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>22900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>21500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>17500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>13700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>12600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>10700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>12300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>11500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>10900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>111700</v>
+      </c>
+      <c r="F18" s="3">
         <v>122700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>120100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>109200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>100700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>101900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>102000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>111200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>104000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>100400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>95200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>90400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>88100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>86400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>89600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>87000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>86000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>86900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>87500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>83800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>74400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>64800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>65300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>68000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>57800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>60300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>60900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1716,194 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-57300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-64600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-56800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-51000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-43200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-50800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-34400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-39200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-36100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-36700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-45700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-54300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-42500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-41900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-45700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-40100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-39100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-39000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-42400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-30200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-24800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-25400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-33300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-24100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AF20" s="3">
         <v>-35400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>65300</v>
+        <v>61400</v>
       </c>
       <c r="E21" s="3">
-        <v>70400</v>
+        <v>56500</v>
       </c>
       <c r="F21" s="3">
         <v>65300</v>
       </c>
       <c r="G21" s="3">
+        <v>70400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>65300</v>
+      </c>
+      <c r="I21" s="3">
         <v>64800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>58400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>74800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>79000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>96400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>71600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>65900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>51900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>41100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>51100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>54400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>52500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>47700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>54100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>55700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>52000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>38900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>40700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>46600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>46500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>38300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>33000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>42700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AF21" s="3">
         <v>14600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1988,198 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>48100</v>
+      </c>
+      <c r="F23" s="3">
         <v>58100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>63300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>58200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>57500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>51100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>67600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>72000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>89200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>64300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>58600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>33800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>43700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>47100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>45200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>40300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>46800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>48400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>44800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>32000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>34600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>40500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>40200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>32400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>27000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>36800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F24" s="3">
         <v>11600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>12600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>11200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>16600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>7800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>7700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>8900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>8200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>9700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>9200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>8600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>6100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>11200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>11900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>12200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>9400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>7200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>11000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AF24" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>38500</v>
+      </c>
+      <c r="F26" s="3">
         <v>46500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>50700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>47100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>46300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>41700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>52700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>58000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>72600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>53900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>37200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>27600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>35900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>39400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>36200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>32100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>37100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>39300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>36100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>25900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>23400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>28600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>27900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>23000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>19800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>25800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F27" s="3">
         <v>46700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>50200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>46500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>45600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>40200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>50400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>55800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>69000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>50100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>34500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>34600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>26400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>35100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>37700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>34600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>31400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>36700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>38300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>34800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>24700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>22400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>27200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>26200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>22000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>19000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>24200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2456,11 +2578,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2477,27 +2599,27 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2816,198 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>63600</v>
+      </c>
+      <c r="F32" s="3">
         <v>64600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>56800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>51000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>43200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>50800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>34400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>39200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>36100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>36700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>45700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>54300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>42600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>42500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>41900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>45700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>40100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>39100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>39000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>42400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>30200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>24800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>27800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>25400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>33300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>24100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AF32" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F33" s="3">
         <v>46700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>50200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>46500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>45600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>40200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>50400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>55800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>69000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>50100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>34500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>34600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>26400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>35100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>37700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>34600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>31400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>36000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>38300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>34800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>24700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>12300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>27200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>26200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>22000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>19000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>24200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F35" s="3">
         <v>46700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>50200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>46500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>45600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>40200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>50400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>55800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>69000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>50100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>34500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>34600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>26400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>35100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>37700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>34600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>31400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>36000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>38300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>34800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>24700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>12300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>27200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>26200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>22000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>19000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>24200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,180 +3353,194 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F41" s="3">
         <v>55400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>97300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>72600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>75000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>17400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>75400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>117800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>141500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>41500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>114600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>115700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>108900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>97600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>124400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>110600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>104100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>665000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>688600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>440100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>479500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>500400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>647700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>468500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>420200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>131000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>147900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AF41" s="3">
         <v>188200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1569600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1174800</v>
+      </c>
+      <c r="F42" s="3">
         <v>1107000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1351400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>2387500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2902400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3292400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3201700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3019400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1983400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1852900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1736800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2591900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>834800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>377100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>727300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>888700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>837700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>64900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>67300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>64100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>51000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>34100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>34600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>34700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>41700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>41500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>31800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AF42" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3809,14 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,266 +3901,290 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>163400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>139100</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>102400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>102200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>96800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>92700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>92400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>92300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>77600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>66100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>59400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>54600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>51700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>32300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>33000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>26400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>27400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>21400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>22800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>18800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>19800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>13500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>14900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>15000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AF47" s="3">
         <v>14800</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>405100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>402800</v>
+      </c>
+      <c r="F48" s="3">
         <v>354300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>346600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>341900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>331900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>323500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>325800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>322100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>320600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>320600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>315400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>304200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>285000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>279300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>280700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>271600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>269400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>211800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>210700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>208000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>207100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>194900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>197000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>199900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>198700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>198600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>203000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>202300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>527800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>550500</v>
+      </c>
+      <c r="F49" s="3">
         <v>501600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>503300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>502000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>504700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>507600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>508000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>494600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>497100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>497900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>492500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>495400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>498200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>501200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>503800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>501300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>504200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>492400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>485300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>486300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>474300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>308800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>310700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>308300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>302000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>302800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>304300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AF49" s="3">
         <v>299000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4361,14 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4545,106 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17225100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16730500</v>
+      </c>
+      <c r="F54" s="3">
         <v>15845300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15951800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>16864000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>16666600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>16361400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15811400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>15803800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15079400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>14626400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>14795400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>15580300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12623800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11947700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12021300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11942500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11568300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11163000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11121200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10831700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10620400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>8522200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>8614800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>8427000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>8174800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>7973900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>7830100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>7940700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4709,10 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,8 +4797,14 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,76 +4889,82 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>56200</v>
+      </c>
+      <c r="F59" s="3">
         <v>53300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>55100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>56000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>57900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>56600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>58900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>60300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>62700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>64200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>62300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>49700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>51100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>50200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>52300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>43900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>44200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>0</v>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
@@ -4707,8 +4981,14 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,83 +5073,89 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>284500</v>
+      </c>
+      <c r="F61" s="3">
         <v>247400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>247300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>497100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>496800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>249700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>249500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>249400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>432400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>431900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>248900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1360200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>248600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>248500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>248300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>248200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>248000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>247900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>247700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>247600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>257700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>247200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>247100</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -4879,8 +5165,14 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15251200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14755800</v>
+      </c>
+      <c r="F66" s="3">
         <v>13971300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14125100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15010300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>14804100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>14462100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13928300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13950000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13279200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12859600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13063700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13872700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>10970600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10306900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>10395900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10348700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>10014400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9637500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>9635300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9368900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9181900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7390900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7485200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7316400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7085000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6898800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>6762900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>6890400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>884900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>861900</v>
+      </c>
+      <c r="F72" s="3">
         <v>840800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>810800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>777400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>747600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>716600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>691000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>655100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>613800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>557900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>520900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>499500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>478000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>467200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>445200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>420600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>399000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>379200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>354800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>328100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>304900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>282700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>279200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>260800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>243300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>229500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>218600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>202600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1973800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1974700</v>
+      </c>
+      <c r="F76" s="3">
         <v>1874000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1826700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1853700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1862500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1899300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1883100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1853800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1800200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1766800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1731700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1707600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1653200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1640800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1625400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1593800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1553800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1525500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1486000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1462800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1438500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1131200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1129600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1110700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1089800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1075100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>1067200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>1050400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F81" s="3">
         <v>46700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>50200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>46500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>45600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>40200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>50400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>55800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>69000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>50100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>34500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>34600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>26400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>35100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>37700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>34600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>31400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>36000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>38300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>34800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>24700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>12300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>27200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>26200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>22000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>19000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>24200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6806,102 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F83" s="3">
         <v>7200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>7100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>7200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>7100</v>
       </c>
       <c r="K83" s="3">
         <v>7200</v>
       </c>
       <c r="L83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N83" s="3">
         <v>7300</v>
-      </c>
-      <c r="M83" s="3">
-        <v>7300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>7200</v>
       </c>
       <c r="O83" s="3">
         <v>7300</v>
       </c>
       <c r="P83" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="Q83" s="3">
         <v>7300</v>
       </c>
       <c r="R83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="S83" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="T83" s="3">
         <v>7400</v>
       </c>
       <c r="U83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="W83" s="3">
         <v>7300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>7200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>6800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>6000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>6200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>6300</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>5900</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>6000</v>
       </c>
       <c r="AC83" s="3">
         <v>5900</v>
       </c>
       <c r="AD83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AF83" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7354,106 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F89" s="3">
         <v>78100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>86500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>90400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>160500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>111500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>240900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>93700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>202700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>14100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-91900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>51800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-104100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>42600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>188200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>74400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-40800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>85500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>21100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>107700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-161900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>157900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>115100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>65300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AF89" s="3">
         <v>-38200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7484,102 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-9500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-7000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-20000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-5300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-5700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AF91" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7756,106 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-116200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-223800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-215800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-788400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-819200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-616100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>275800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-178600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>83500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1009700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-194400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-370300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-109400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-158900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-114700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-173200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-113700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-140300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-209400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-77100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-95400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-17400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-273800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AF94" s="3">
         <v>-93900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,85 +7886,87 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F96" s="3">
         <v>-16700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-16700</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-14800</v>
       </c>
       <c r="H96" s="3">
         <v>-14500</v>
       </c>
       <c r="I96" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-14500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="L96" s="3">
         <v>-13100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-13200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-13000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-13100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-13100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-13200</v>
       </c>
       <c r="Q96" s="3">
         <v>-13000</v>
       </c>
       <c r="R96" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-11500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-11600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-11700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-11500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-11600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-10100</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-8800</v>
       </c>
       <c r="Z96" s="3">
         <v>-8800</v>
       </c>
       <c r="AA96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="AB96" s="3">
-        <v>-8100</v>
+        <v>-8800</v>
       </c>
       <c r="AC96" s="3">
         <v>-8100</v>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>-8100</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>-8100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8250,106 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>402100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>226800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-140700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-881100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>180600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>329000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>537300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-68900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>642800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>349600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-231600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-875500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2878200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>641700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-81800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-8000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>329300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>285700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-37800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>291000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>142200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>99400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-107800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>182900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>229400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>148500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>140400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-133400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AF100" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8434,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>393700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>89700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-286400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1010400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-517400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-329600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>32700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>143700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1012200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>243700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>54600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-841600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1765100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>443500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-378800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-145200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>66300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>213600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-22800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>251700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-38900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-24500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-163800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>195100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>48000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>289000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-18200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-67200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AF102" s="3">
         <v>25800</v>
       </c>
     </row>
